--- a/data/trans_dic/P31_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P31_3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,21 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza una actividad física moderada &lt;= 2 días a la semana respecto a las últimas 2 semanas</t>
+          <t>Población que realiza una actividad física moderada &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,09%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +552,29 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -618,6 +682,15 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>69,9%</t>
+          <t>68,58%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>63,37%</t>
+          <t>62,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>65,15%</t>
+          <t>67,14%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>79,39%</t>
+          <t>51,44%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>85,05%</t>
+          <t>72,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>73,62%</t>
+          <t>62,6%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>74,46%</t>
+          <t>78,72%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>74,07%</t>
+          <t>84,63%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>69,38%</t>
+          <t>73,81%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>74,01%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>82,12%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>74,12%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>73,46%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>73,46%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>70,48%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>63,04%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>77,18%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>68,1%</t>
         </is>
       </c>
     </row>
@@ -685,47 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>62,25; 77,55</t>
+          <t>60,18; 76,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>53,91; 71,21</t>
+          <t>53,04; 70,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55,43; 73,04</t>
+          <t>58,2; 75,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>72,45; 85,17</t>
+          <t>41,16; 62,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>78,69; 89,17</t>
+          <t>63,62; 80,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>66,78; 79,84</t>
+          <t>52,25; 72,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>69,35; 79,78</t>
+          <t>71,85; 85,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>68,95; 78,89</t>
+          <t>79,4; 89,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>63,62; 74,7</t>
+          <t>66,46; 79,53</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>65,91; 81,52</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>74,59; 88,59</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>65,7; 81,11</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>67,61; 78,28</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>67,85; 78,22</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>65,11; 75,36</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>55,27; 69,68</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>71,08; 82,68</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>62,05; 75,1</t>
         </is>
       </c>
     </row>
@@ -742,47 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>72,05%</t>
+          <t>71,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>80,81%</t>
+          <t>80,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>72,96%</t>
+          <t>72,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>83,75%</t>
+          <t>65,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>88,1%</t>
+          <t>82,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>82,22%</t>
+          <t>71,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>77,6%</t>
+          <t>83,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>84,27%</t>
+          <t>87,63%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>77,31%</t>
+          <t>81,51%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>79,21%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>83,9%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>85,52%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>77,04%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>83,83%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>76,81%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>71,73%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>82,98%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>78,39%</t>
         </is>
       </c>
     </row>
@@ -795,47 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>61,79; 79,56</t>
+          <t>59,52; 78,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>74,44; 86,05</t>
+          <t>73,74; 85,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65,27; 79,71</t>
+          <t>65,28; 79,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>77,92; 88,61</t>
+          <t>55,95; 75,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>83,76; 91,88</t>
+          <t>73,73; 88,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>77,08; 86,62</t>
+          <t>61,42; 79,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>71,65; 82,23</t>
+          <t>77,43; 88,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>80,48; 87,92</t>
+          <t>82,62; 91,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>72,52; 81,67</t>
+          <t>75,67; 86,16</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>71,99; 85,05</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>77,53; 89,54</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>79,24; 90,66</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>70,57; 81,91</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>80,05; 87,27</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>72,24; 81,17</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>65,55; 77,57</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>77,7; 87,38</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>72,92; 83,11</t>
         </is>
       </c>
     </row>
@@ -852,47 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>79,22%</t>
+          <t>81,02%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>83,33%</t>
+          <t>83,02%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>83,89%</t>
+          <t>83,61%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>90,75%</t>
+          <t>74,57%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>90,28%</t>
+          <t>84,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,2%</t>
+          <t>74,56%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>85,02%</t>
+          <t>90,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>86,87%</t>
+          <t>90,31%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>86,6%</t>
+          <t>89,36%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>82,3%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>88,71%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>87,4%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>85,97%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>86,74%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>86,54%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>78,53%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>86,34%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>80,6%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>68,71; 85,57</t>
+          <t>73,13; 86,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>78,71; 87,38</t>
+          <t>78,34; 87,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>79,29; 87,82</t>
+          <t>78,87; 88,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>86,88; 93,64</t>
+          <t>65,73; 80,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>86,46; 93,01</t>
+          <t>78,37; 88,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>85,58; 92,11</t>
+          <t>67,92; 80,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>79,46; 88,8</t>
+          <t>87,43; 93,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>83,82; 89,27</t>
+          <t>86,57; 93,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>83,75; 89,12</t>
+          <t>85,24; 92,1</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>78,2; 86,35</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>84,43; 92,35</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>82,12; 91,59</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>81,48; 88,98</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>83,89; 89,51</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>83,76; 88,88</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>73,25; 82,09</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>82,55; 89,45</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>75,85; 84,31</t>
         </is>
       </c>
     </row>
@@ -967,42 +1310,87 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>87,1%</t>
+          <t>86,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>81,89%</t>
+          <t>81,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>88,04%</t>
+          <t>72,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>91,44%</t>
+          <t>86,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>90,74%</t>
+          <t>78,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>83,23%</t>
+          <t>88,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>89,32%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>86,37%</t>
+          <t>90,66%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>85,88%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>90,81%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>90,51%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>83,15%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>88,81%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>86,29%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>79,29%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>88,37%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>84,36%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>72,31; 82,61</t>
+          <t>73,1; 83,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,73; 90,68</t>
+          <t>81,67; 89,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>77,29; 85,88</t>
+          <t>77,28; 85,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>83,84; 91,64</t>
+          <t>66,87; 78,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,09; 93,93</t>
+          <t>80,33; 90,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,65; 93,33</t>
+          <t>72,33; 84,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>79,93; 86,05</t>
+          <t>83,36; 91,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>86,81; 91,42</t>
+          <t>87,92; 93,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>83,72; 88,81</t>
+          <t>87,06; 93,04</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>81,27; 89,31</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>85,99; 94,29</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>86,33; 93,77</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>79,77; 85,92</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>86,1; 91,15</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>83,54; 88,66</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>75,55; 82,82</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>84,86; 91,35</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>80,36; 87,92</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>81,48%</t>
+          <t>81,82%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>83,61%</t>
+          <t>83,6%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>84,39%</t>
+          <t>84,17%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>93,82%</t>
+          <t>74,83%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>91,88%</t>
+          <t>91,24%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>90,62%</t>
+          <t>85,97%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>87,79%</t>
+          <t>93,65%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>87,69%</t>
+          <t>91,89%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>87,54%</t>
+          <t>90,71%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>88,83%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>94,34%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>89,07%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>87,85%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>87,68%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>87,49%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>82,01%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>92,86%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>87,55%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>73,63; 86,46</t>
+          <t>74,23; 86,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>76,85; 88,05</t>
+          <t>76,57; 87,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>78,38; 88,42</t>
+          <t>77,73; 88,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>89,7; 96,35</t>
+          <t>67,09; 80,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>87,54; 95,04</t>
+          <t>86,18; 95,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>84,9; 94,08</t>
+          <t>80,13; 90,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>83,11; 90,96</t>
+          <t>89,78; 96,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>84,3; 90,57</t>
+          <t>87,87; 95,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>84,01; 90,55</t>
+          <t>85,12; 93,92</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>83,81; 93,29</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>90,56; 96,82</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>83,7; 93,0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>83,68; 90,72</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>83,85; 90,46</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>83,8; 90,51</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>76,67; 85,8</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>89,78; 95,13</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>83,91; 90,67</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>91,92%</t>
+          <t>91,9%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>89,58%</t>
+          <t>89,51%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>90,81%</t>
+          <t>91,04%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>92,75%</t>
+          <t>89,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,73%</t>
+          <t>91,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,72%</t>
+          <t>83,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>92,39%</t>
+          <t>93,97%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>93,64%</t>
+          <t>96,61%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>93,02%</t>
+          <t>94,53%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>90,0%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>89,23%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>93,17%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>93,07%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>93,53%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>93,01%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>89,79%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>90,14%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>89,2%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>86,81; 95,25</t>
+          <t>87,4; 95,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>82,81; 93,5</t>
+          <t>82,76; 93,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>85,86; 94,43</t>
+          <t>86,04; 94,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>87,66; 96,14</t>
+          <t>82,93; 94,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>94,01; 98,39</t>
+          <t>85,81; 95,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>91,37; 96,84</t>
+          <t>76,48; 89,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>88,98; 94,82</t>
+          <t>90,18; 96,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>90,32; 95,71</t>
+          <t>93,73; 98,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>90,69; 95,2</t>
+          <t>91,21; 96,91</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>83,76; 94,23</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>79,68; 94,74</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>88,01; 96,55</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>90,6; 95,41</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>90,46; 95,64</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>90,44; 95,21</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>85,56; 92,96</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>84,52; 93,85</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>84,98; 92,42</t>
         </is>
       </c>
     </row>
@@ -1297,42 +1910,87 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>81,62%</t>
+          <t>81,12%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>80,02%</t>
+          <t>80,19%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>88,58%</t>
+          <t>72,05%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>90,89%</t>
+          <t>84,8%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>87,54%</t>
+          <t>76,19%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>83,79%</t>
+          <t>88,71%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>86,34%</t>
+          <t>90,73%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>87,44%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>83,9%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>88,53%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>87,4%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
           <t>83,86%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>86,02%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>83,89%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>78,09%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>86,67%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>81,85%</t>
         </is>
       </c>
     </row>
@@ -1345,63 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>75,26; 81,51</t>
+          <t>75,54; 81,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>79,28; 83,97</t>
+          <t>78,76; 83,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>77,33; 82,2</t>
+          <t>77,51; 82,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>86,7; 90,4</t>
+          <t>68,58; 75,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>89,48; 92,32</t>
+          <t>82,11; 87,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>85,94; 89,18</t>
+          <t>72,65; 79,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>82,03; 85,38</t>
+          <t>86,92; 90,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>84,87; 87,59</t>
+          <t>89,24; 92,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>82,3; 85,26</t>
+          <t>85,57; 88,98</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>81,55; 86,01</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>85,76; 90,38</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>85,2; 89,17</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>81,96; 85,36</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>84,61; 87,3</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>82,06; 85,31</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>76,03; 79,96</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>85,1; 88,34</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>79,94; 83,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza una actividad física moderada &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,09%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>344310</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>323799</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>342475</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>226569</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>30642</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>25824</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>366454</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>428919</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>377920</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>344630</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>30452</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>27884</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>710764</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>752718</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>720395</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>571199</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>61094</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>53709</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>302146; 384831</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>274715; 366344</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>296898; 387490</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>181298; 274093</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>26767; 34068</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>21555; 29883</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>334441; 395862</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>402416; 454736</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>340285; 407202</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>306917; 379586</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>27659; 32854</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>24716; 30514</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>654163; 757368</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>695306; 801568</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>665487; 770335</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>500825; 631415</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>56264; 65446</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>48942; 59237</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>343.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>407138</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>450406</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>429020</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>375252</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>40602</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>32163</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>426983</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>440831</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>421682</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>375464</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>39606</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>38559</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>834121</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>891237</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>850701</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>750716</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>80208</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>70722</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>341247; 450424</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>412962; 481066</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>385241; 466342</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>320378; 430930</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>36465; 43831</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>27720; 35970</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>394408; 451457</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>415629; 460254</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>391490; 445775</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>341230; 403138</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>36597; 42267</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>35726; 40876</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>764009; 886857</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>851024; 927782</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>800057; 898995</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>686016; 811812</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>75107; 84458</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>65789; 74983</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>254.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>323.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>335.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>426.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>547.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>561.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>403.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>392.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>547248</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>560678</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>568593</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>486980</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>50705</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>44602</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>637017</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>636608</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>630589</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>565093</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>47828</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>46517</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1184265</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1197286</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1199182</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1052074</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>98532</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>91120</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>493973; 581934</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>529034; 591893</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>536378; 598710</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>429286; 525316</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>47186; 53460</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>40631; 48267</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>613893; 658150</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>610251; 657089</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>601463; 649891</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>536957; 592901</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>45522; 49791</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>43705; 48747</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1122531; 1225847</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1157814; 1235413</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1160736; 1231662</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>981331; 1099781</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>94217; 102092</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>85744; 95312</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>264.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>341.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>462.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>584.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>594.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>428.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>366.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>362.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>503754</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>551134</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>522689</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>456551</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>49948</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>43177</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>591574</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>608904</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>596935</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>541779</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>47393</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>46634</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1095328</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1160037</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1119624</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>998329</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>97341</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>89811</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>471494; 536290</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>522684; 574940</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>493876; 548938</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>420118; 493381</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>46563; 52497</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>39731; 46367</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>560425; 612667</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>585714; 625725</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>573272; 612637</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>512703; 563396</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>44873; 49207</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>44482; 48315</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1050843; 1131750</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1124604; 1190536</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1083898; 1150322</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>951181; 1042767</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>93475; 100625</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>85545; 93591</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>370.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>441.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>455.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>312.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>354.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>329.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>393491</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>412481</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>411447</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>352442</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>40591</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>37478</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>467692</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>439982</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>458031</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>439564</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>46010</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>40706</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>861185</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>852464</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>869479</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>792006</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>86602</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>78183</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>357006; 417617</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>377818; 433742</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>379982; 433754</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>315974; 380054</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>38337; 42308</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>34934; 39547</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>448358; 481378</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>420768; 455040</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>429805; 474261</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>414703; 461621</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>44165; 47220</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>38253; 42504</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>820300; 889384</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>815224; 879517</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>832832; 899512</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>740449; 828669</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>83732; 88716</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>74925; 80968</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>359.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>407.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>402.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>501052</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>461548</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>484666</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>485560</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>42397</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>36070</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>668015</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>649936</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>654783</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>623037</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>56540</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>56355</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1169068</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>1111484</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>1139450</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>1108597</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>98937</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>92425</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>476505; 520560</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>426725; 483669</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>458052; 502623</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>449784; 510059</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>39806; 44127</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>32986; 38432</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>641070; 686254</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>630553; 662308</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>631793; 671292</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>579829; 652360</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>50489; 60030</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>53232; 58398</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>1138007; 1198410</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>1074927; 1136582</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>1107929; 1166418</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>1056363; 1147690</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>92767; 103007</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>88056; 95758</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>903.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1098.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1077.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>722.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>781.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>683.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1178.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1459.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1454.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1020.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>971.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>939.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>2081.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>2557.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>2531.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>1742.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>1752.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>1622.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2696994</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2760046</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2758891</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2383354</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>254884</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>219313</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>3157735</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>3205180</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>3139940</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>2889567</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>267829</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>256654</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>5854729</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>5965227</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>5898830</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>5272921</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>522713</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>475968</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2584856; 2780177</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2679810; 2840610</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2666867; 2833497</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2268478; 2493759</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>246811; 261580</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>209143; 227621</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>3094022; 3219204</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>3152360; 3258913</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3073023; 3195235</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>2808748; 2962334</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>259451; 273419</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>250194; 261827</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>5722355; 5959345</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>5867359; 6054274</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>5770534; 5998478</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>5133579; 5398641</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>513225; 532795</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>464853; 486302</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
